--- a/medicine/Sexualité et sexologie/Femmes_au_bord_de_la_crise_de_nerfs/Femmes_au_bord_de_la_crise_de_nerfs.xlsx
+++ b/medicine/Sexualité et sexologie/Femmes_au_bord_de_la_crise_de_nerfs/Femmes_au_bord_de_la_crise_de_nerfs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Femmes au bord de la crise de nerfs (Mujeres al borde de un ataque de nervios) est un film espagnol réalisé par Pedro Almodóvar, sorti en 1988.
 Il s'agit du premier succès international du cinéaste espagnol, qui signe alors son septième long métrage. Ce film a notamment remporté le prix du meilleur scénario lors de la Mostra de Venise 1988, le prix du public au festival de Toronto 1988, et cinq prix Goya en 1989. Sélectionné parmi les meilleurs films étrangers de l'année dans plusieurs pays, il a particulièrement été nommé pour l'Oscar du meilleur film en langue étrangère.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son appartement de Madrid, Pepa rêve d'Iván, son compagnon qui est en train de la quitter. Au même moment, celui-ci lui laisse un message sur son répondeur, lui annonçant qu'il part bientôt en voyage et qu'il souhaite récupérer sa valise et ses affaires chez elle. Ayant pris un somnifère la veille, Pepa se réveille difficilement, décroche le téléphone trop tard puis tente vainement de rappeler Iván au studio d'enregistrement où tous deux travaillent comme acteurs de doublage. Avant d'aller travailler, elle récupère des résultats d'analyse auprès de son médecin, qui lui conseille vivement d'éviter la cigarette et l'alcool. Au studio, elle double d'abord une publicité pour un préservatif puis enchaîne avec une séquence du western Johnny Guitare, enregistrant les répliques de son personnage alors qu'Iván avait déjà réalisé sa partie plus tôt. Le dialogue du film résonnant avec sa propre situation amoureuse, Pepa s'évanouit.
 Au secrétariat du studio, elle découvre un papier où se trouvent son propre numéro de téléphone et un autre qu'elle ne connaît pas. Comprenant que ces numéros ont été écrits par Iván lorsqu'il l'avait appelée, elle s'en empare malgré les protestations de la standardiste. Elle tente d'appeler l'autre numéro et tombe sur une femme qui l'agresse et l'insulte. Après avoir raccroché, cette femme, Lucía, se plaint à sa mère d'avoir été appelée par celle qui lui a « volé Iván ».
@@ -552,7 +566,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Mujeres al borde de un ataque de nervios
@@ -605,7 +621,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Carmen Maura (VF : Véronique Augereau) : Pepa
@@ -670,13 +688,15 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vaudeville moderne, le film librement inspiré de La Voix humaine, une pièce de théâtre de 1930 de Jean Cocteau[1], qui est constituée du long monologue téléphonique d'une femme délaissée par son amant[2]. Almodóvar veut initialement en faire l'adaptation, mais celle-ci s'avère trop courte pour en faire un long métrage[2]. Pour son scénario, il imagine alors ce que pourrait avoir vécu ce personnage féminin durant les deux jours qui précèdent la rupture dont parle la pièce de Cocteau[2].
-Parmi ses idées de séquences, le réalisateur s'inspire de l'expérience personnelle d'une amie, qui a vécu une situation similaire à celle de Candela lorsque celle-ci fuit les policiers qui recherchent son amant terroriste islamiste[2].
-Le personnage de Candela, finalement incarné par María Barranco, est d'abord proposé à Victoria Abril, qui refuse[3].
-Le tournage se déroule en 1987 à Madrid, en partie dans les studios de Barajas[4]. L'appartement de Pepa est situé dans l'histoire au septième étage du no 7 de la rue Montalbán, et celui de Lucía au 38 de la rue Almagro[5]. Depuis son balcon, Pepa a une vue sur la Gran Vía et l'édifice Telefónica[5].
-Des pellicules 35 mm Kodak et des caméras et objectifs Panavision sont utilisées pour le tournage[6]. Carmen Maura estime « vivre un enfer » durant le tournage, au point de se brouiller durablement avec Pedro Almodóvar, dont elle est jusqu'alors une actrice fétiche, leur collaboration suivante n'intervenant finalement que dix-huit ans plus tard, avec Volver[3]. Inversement, Rossy de Palma, qui avait commencé sa carrière cinématographique l'année précédente avec un rôle secondaire dans La Loi du désir d'Almodóvar, obtient dans ce film un rôle plus important qui marque le début d'une collaboration régulière entre l'actrice et le cinéaste[2]. Quant à Agustín Almodóvar, il fait un caméo, comme souvent dans les films de son frère dont il est le producteur, dans le rôle d'un agent immobilier[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vaudeville moderne, le film librement inspiré de La Voix humaine, une pièce de théâtre de 1930 de Jean Cocteau, qui est constituée du long monologue téléphonique d'une femme délaissée par son amant. Almodóvar veut initialement en faire l'adaptation, mais celle-ci s'avère trop courte pour en faire un long métrage. Pour son scénario, il imagine alors ce que pourrait avoir vécu ce personnage féminin durant les deux jours qui précèdent la rupture dont parle la pièce de Cocteau.
+Parmi ses idées de séquences, le réalisateur s'inspire de l'expérience personnelle d'une amie, qui a vécu une situation similaire à celle de Candela lorsque celle-ci fuit les policiers qui recherchent son amant terroriste islamiste.
+Le personnage de Candela, finalement incarné par María Barranco, est d'abord proposé à Victoria Abril, qui refuse.
+Le tournage se déroule en 1987 à Madrid, en partie dans les studios de Barajas. L'appartement de Pepa est situé dans l'histoire au septième étage du no 7 de la rue Montalbán, et celui de Lucía au 38 de la rue Almagro. Depuis son balcon, Pepa a une vue sur la Gran Vía et l'édifice Telefónica.
+Des pellicules 35 mm Kodak et des caméras et objectifs Panavision sont utilisées pour le tournage. Carmen Maura estime « vivre un enfer » durant le tournage, au point de se brouiller durablement avec Pedro Almodóvar, dont elle est jusqu'alors une actrice fétiche, leur collaboration suivante n'intervenant finalement que dix-huit ans plus tard, avec Volver. Inversement, Rossy de Palma, qui avait commencé sa carrière cinématographique l'année précédente avec un rôle secondaire dans La Loi du désir d'Almodóvar, obtient dans ce film un rôle plus important qui marque le début d'une collaboration régulière entre l'actrice et le cinéaste. Quant à Agustín Almodóvar, il fait un caméo, comme souvent dans les films de son frère dont il est le producteur, dans le rôle d'un agent immobilier.
 </t>
         </is>
       </c>
@@ -707,12 +727,91 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-Box-office
-La base Lumière de l'Observatoire européen de l'audiovisuel, qui répertorie des données du box-office européen depuis 1996, indique que le film a réuni, depuis 1997, plus de 38 000 spectateurs lors de diverses reprises du film dans divers pays européens, dont plus de 27 000 en France[7].
-Distinctions
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Récompenses
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base Lumière de l'Observatoire européen de l'audiovisuel, qui répertorie des données du box-office européen depuis 1996, indique que le film a réuni, depuis 1997, plus de 38 000 spectateurs lors de diverses reprises du film dans divers pays européens, dont plus de 27 000 en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 En Espagne
 Goyas 1989 :
 meilleur film
@@ -741,7 +840,47 @@
 Ruban d'argent 1989 : réalisateur du meilleur film étranger
 Prix 1989 de la National Society of Film Critics : prix spécial pour Pedro Almodóvar pour son originalité (également pour Matador)
 Prix ACE 1989 : meilleure actrice dans un second rôle au cinéma pour María Barranco
-Nominations et sélections
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 En Espagne
 Goyas 1989 :
 meilleur réalisateur pour Pedro Almodóvar
@@ -772,42 +911,117 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Femmes_au_bord_de_la_crise_de_nerfs</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Femmes_au_bord_de_la_crise_de_nerfs</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Analyse
-Le titre du film fait référence à un trouble psychiatrique qui est lié historiquement à l'hystérie mais qui est maintenant vu dans un contexte culturel en tant qu'une forme de traumatisme[8].
-Erreurs
-Il existe quelques erreurs dans le film. Lorsque le canard de Pepa refuse de sauter à sa demande, le personnage utilise un pronom personnel féminin pour parler de l'animal alors que le plumage indique qu'il s'agit d'un mâle[9].
-Le film compte aussi quelques erreurs de continuité. Des feuilles changent de position entre plusieurs plans dans la scène où Pepa jette les allumettes sur le lit[9]. De même, le ciel passe trop rapidement du jour à la nuit entre l'appel d'Iván depuis la cabine téléphonique et l'arrivée de Lucía et des policiers dans l'appartement[9]. Enfin, quand Pepa pousse le chariot à bagages vers Lucía, celui-ci se déplace très rapidement alors qu'au plan suivant, il semble à peine toucher Lucía, qui tombe pourtant comme si le choc était violent[9].
-Par ailleurs, une erreur est souvent propagée à propos du film : des croyances populaires affirment à tort que Pedro Almodóvar interprète lui-même le chauffeur de taxi alors qu'il s'agit de l'acteur Guillermo Montesinos (es)[2].
-Postérité
-En 2003, le film est inclus dans l'ouvrage 1001 films à voir avant de mourir (1001 Movies You Must See Before You Die)[3].
-Femmes au bord de la crise de nerfs est régulièrement projeté lors de divers évènements. Par exemple, le festival Premiers Plans d'Angers l'a programmé à trois reprises dans ses sélections « Hommages et rétrospectives » : en 1994 dans un programme « L'Espagne en liberté »[10], en 2006 dans une sélection intitulée « Une journée particulière »[11], et en 2018 dans le cadre d'une rétrospective de l'œuvre de Pedro Almodóvar[12].
-Pedro Almodóvar fait lui-même des clins d'œil à son propre film dans Étreintes brisées en 2009[2], où le personnage principal tourne un film qui reprend ou détourne certains détails de Femmes au bord de la crise de nerfs, comme la préparation d'un gaspacho avec des somnifères. Le réalisateur a aussi réalisé la même année le court métrage La Conseillère anthropophage, qui est une autre scène de ce faux film, où il est en fait crédité au générique sous le nom de son personnage : Mateo Blanco.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le titre du film fait référence à un trouble psychiatrique qui est lié historiquement à l'hystérie mais qui est maintenant vu dans un contexte culturel en tant qu'une forme de traumatisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Erreurs</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe quelques erreurs dans le film. Lorsque le canard de Pepa refuse de sauter à sa demande, le personnage utilise un pronom personnel féminin pour parler de l'animal alors que le plumage indique qu'il s'agit d'un mâle.
+Le film compte aussi quelques erreurs de continuité. Des feuilles changent de position entre plusieurs plans dans la scène où Pepa jette les allumettes sur le lit. De même, le ciel passe trop rapidement du jour à la nuit entre l'appel d'Iván depuis la cabine téléphonique et l'arrivée de Lucía et des policiers dans l'appartement. Enfin, quand Pepa pousse le chariot à bagages vers Lucía, celui-ci se déplace très rapidement alors qu'au plan suivant, il semble à peine toucher Lucía, qui tombe pourtant comme si le choc était violent.
+Par ailleurs, une erreur est souvent propagée à propos du film : des croyances populaires affirment à tort que Pedro Almodóvar interprète lui-même le chauffeur de taxi alors qu'il s'agit de l'acteur Guillermo Montesinos (es).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Femmes_au_bord_de_la_crise_de_nerfs</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, le film est inclus dans l'ouvrage 1001 films à voir avant de mourir (1001 Movies You Must See Before You Die).
+Femmes au bord de la crise de nerfs est régulièrement projeté lors de divers évènements. Par exemple, le festival Premiers Plans d'Angers l'a programmé à trois reprises dans ses sélections « Hommages et rétrospectives » : en 1994 dans un programme « L'Espagne en liberté », en 2006 dans une sélection intitulée « Une journée particulière », et en 2018 dans le cadre d'une rétrospective de l'œuvre de Pedro Almodóvar.
+Pedro Almodóvar fait lui-même des clins d'œil à son propre film dans Étreintes brisées en 2009, où le personnage principal tourne un film qui reprend ou détourne certains détails de Femmes au bord de la crise de nerfs, comme la préparation d'un gaspacho avec des somnifères. Le réalisateur a aussi réalisé la même année le court métrage La Conseillère anthropophage, qui est une autre scène de ce faux film, où il est en fait crédité au générique sous le nom de son personnage : Mateo Blanco.
 En 2020, Almodóvar a fini par réaliser le moyen métrage La Voix humaine, adaptation de la nouvelle de Cocteau qui lui a inspiré Femmes au bord de la crise de nerfs, avec Tilda Swinton dans le rôle principal.
 </t>
         </is>
